--- a/Source/Test/Data/Image.xlsx
+++ b/Source/Test/Data/Image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7EAB2-F4E8-4934-BD9E-5F95732CE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1FFC45-65A9-4B80-B7A5-2B41C7CFA248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17325" yWindow="9450" windowWidth="31875" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>#Image($Bin)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>#Image($Bin, 0.5, 0.5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B16"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -379,11 +375,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
